--- a/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia a frente(1, 1, 1) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4332029434103489</v>
+        <v>0.3928251850711788</v>
       </c>
       <c r="C11" t="n">
-        <v>1.510037073255846</v>
+        <v>1.412775433020996</v>
       </c>
       <c r="D11" t="n">
-        <v>2.600170500973721</v>
+        <v>2.074332150438993</v>
       </c>
     </row>
     <row r="12">
